--- a/QA/testcases/Patient/Patient_Login_Validation.xlsx
+++ b/QA/testcases/Patient/Patient_Login_Validation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="14685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -19,14 +19,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="129">
   <si>
     <t>Step No</t>
   </si>
@@ -418,14 +418,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,346 +447,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -802,277 +466,22 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1080,65 +489,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1149,7 +511,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1449,29 +811,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="3" customWidth="1"/>
-    <col min="4" max="4" width="57.2857142857143" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.1428571428571" style="3" customWidth="1"/>
-    <col min="6" max="6" width="72.7142857142857" style="3" customWidth="1"/>
-    <col min="7" max="7" width="84.7142857142857" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.82857142857143" style="3"/>
+    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="84.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1528,7 +890,7 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
@@ -1550,13 +912,13 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4">
@@ -1568,13 +930,13 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
@@ -1586,13 +948,13 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4">
@@ -1604,15 +966,15 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1622,20 +984,20 @@
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1645,7 +1007,7 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1655,7 +1017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1667,43 +1029,54 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B8 B9 B10 B5:B7">
-      <formula1>DataList!$C$2:$C$196</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C8 C9 C10 C5:C7">
-      <formula1>DataList!$A$2:$A$12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1 C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataList!$C$2:$C$196</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2 B3 B4 B8 B9 B10 B5:B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataList!$A$2:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2 C3 C4 C8 C9 C10 C5:C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
-    <col min="3" max="3" width="52.5047619047619" customWidth="1"/>
-    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1711,7 +1084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1727,7 +1100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1759,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1778,7 +1151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1786,7 +1159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1794,57 +1167,57 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
         <v>59</v>
       </c>
@@ -1857,47 +1230,47 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:4">
       <c r="C24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:4">
       <c r="C25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:4">
       <c r="C30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:4">
       <c r="C31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:4">
       <c r="C32" t="s">
         <v>68</v>
       </c>
@@ -2062,32 +1435,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:4">
       <c r="C66" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>105</v>
       </c>
@@ -2100,7 +1473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2113,22 +1486,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:4">
       <c r="C75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:4">
       <c r="C76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:4">
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -2149,7 +1522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:4">
       <c r="C80" t="s">
         <v>115</v>
       </c>
@@ -2225,20 +1598,28 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89 C93 C2:C85 C86:C88 C90:C92 C95:C98 C100:C195">
-      <formula1>Sheet1!#REF!</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C89 C93 C2:C85 C86:C88 C90:C92 C95:C98 C100:C195</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>